--- a/Code/Results/Cases/Case_0_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1445893971560253</v>
+        <v>0.04935063238890791</v>
       </c>
       <c r="D2">
-        <v>0.04466897955961002</v>
+        <v>0.02329706158598555</v>
       </c>
       <c r="E2">
-        <v>0.1643741100814751</v>
+        <v>0.09572615734814605</v>
       </c>
       <c r="F2">
-        <v>0.4987523015660429</v>
+        <v>0.6575948666205704</v>
       </c>
       <c r="G2">
-        <v>0.0007843950141866698</v>
+        <v>0.002414832999980501</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.636777802085305</v>
+        <v>1.190993477032976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.064471342954313</v>
+        <v>0.3848367263253465</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.382581513743276</v>
+        <v>2.220079531345846</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1250154217550232</v>
+        <v>0.04381608568382944</v>
       </c>
       <c r="D3">
-        <v>0.04048252604717106</v>
+        <v>0.02184499405163365</v>
       </c>
       <c r="E3">
-        <v>0.1435232406883351</v>
+        <v>0.09175192719149194</v>
       </c>
       <c r="F3">
-        <v>0.4609161278383809</v>
+        <v>0.6570273404666551</v>
       </c>
       <c r="G3">
-        <v>0.0007894240203645351</v>
+        <v>0.002418046712899343</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.167679349054936</v>
+        <v>1.043158600739957</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9217144202703551</v>
+        <v>0.3435600473777072</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.308811619101903</v>
+        <v>2.234118524495727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1131187225882115</v>
+        <v>0.04043264710733752</v>
       </c>
       <c r="D4">
-        <v>0.03791727518780164</v>
+        <v>0.02095091101128332</v>
       </c>
       <c r="E4">
-        <v>0.1312311151084202</v>
+        <v>0.08942706720871385</v>
       </c>
       <c r="F4">
-        <v>0.4393528023536746</v>
+        <v>0.6573115144528856</v>
       </c>
       <c r="G4">
-        <v>0.0007926028949430576</v>
+        <v>0.002420123526819381</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.880230607986817</v>
+        <v>0.9521415680187033</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8347293243700094</v>
+        <v>0.3182726918021928</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.269140302232898</v>
+        <v>2.244907689826732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1082971216138304</v>
+        <v>0.03905755951444689</v>
       </c>
       <c r="D5">
-        <v>0.03687280711864105</v>
+        <v>0.02058596368797794</v>
       </c>
       <c r="E5">
-        <v>0.126337183763777</v>
+        <v>0.08850834500567473</v>
       </c>
       <c r="F5">
-        <v>0.4309548235550622</v>
+        <v>0.6575858425592784</v>
       </c>
       <c r="G5">
-        <v>0.0007939218490948035</v>
+        <v>0.002420995973066664</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.763183966497479</v>
+        <v>0.9149914020390497</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7994218472076184</v>
+        <v>0.3079821650989487</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.254290684219569</v>
+        <v>2.249847838789037</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1074979742202373</v>
+        <v>0.03882944935303101</v>
       </c>
       <c r="D6">
-        <v>0.03669941621028272</v>
+        <v>0.02052532902470006</v>
       </c>
       <c r="E6">
-        <v>0.1255311418850518</v>
+        <v>0.08835751443313811</v>
       </c>
       <c r="F6">
-        <v>0.4295830054506027</v>
+        <v>0.657640952726517</v>
       </c>
       <c r="G6">
-        <v>0.0007941423000715509</v>
+        <v>0.002421142422478213</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.743752439229269</v>
+        <v>0.9088190767143942</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.793566710283514</v>
+        <v>0.3062742940158429</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.251901710981571</v>
+        <v>2.25070091343585</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1130535952989646</v>
+        <v>0.04041408728924978</v>
       </c>
       <c r="D7">
-        <v>0.03790318604658438</v>
+        <v>0.02094599159831034</v>
       </c>
       <c r="E7">
-        <v>0.1311646640528394</v>
+        <v>0.08941456131567094</v>
       </c>
       <c r="F7">
-        <v>0.4392380068606911</v>
+        <v>0.6573145730180414</v>
       </c>
       <c r="G7">
-        <v>0.0007926205867167806</v>
+        <v>0.002420135187214192</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.878651776707471</v>
+        <v>0.9516407883212707</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8342526259986727</v>
+        <v>0.3181338523226458</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.268934827926927</v>
+        <v>2.244972116523286</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1378123804195468</v>
+        <v>0.04743923049579735</v>
       </c>
       <c r="D8">
-        <v>0.0432241292474842</v>
+        <v>0.02279692617150886</v>
       </c>
       <c r="E8">
-        <v>0.1570705966804127</v>
+        <v>0.09433170858888928</v>
       </c>
       <c r="F8">
-        <v>0.4853413593105245</v>
+        <v>0.6572675424430159</v>
       </c>
       <c r="G8">
-        <v>0.0007861105187236131</v>
+        <v>0.002415919638966352</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.474878019018661</v>
+        <v>1.140072074459738</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.015092318434291</v>
+        <v>0.3705927582217186</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.355917957777905</v>
+        <v>2.22446877231863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1875370922519153</v>
+        <v>0.06133494551016838</v>
       </c>
       <c r="D9">
-        <v>0.05372221992439563</v>
+        <v>0.02640561363645588</v>
       </c>
       <c r="E9">
-        <v>0.2125667452422988</v>
+        <v>0.104904552020173</v>
       </c>
       <c r="F9">
-        <v>0.5904523799800785</v>
+        <v>0.6622212676352106</v>
       </c>
       <c r="G9">
-        <v>0.0007740354507820624</v>
+        <v>0.002408471113721576</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.651414171449289</v>
+        <v>1.507573514231581</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.376423553081679</v>
+        <v>0.4739191239616787</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.575832337581261</v>
+        <v>2.201564302808521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2250972056093019</v>
+        <v>0.07162077706347247</v>
       </c>
       <c r="D10">
-        <v>0.0615092725461821</v>
+        <v>0.02904294357063719</v>
       </c>
       <c r="E10">
-        <v>0.2571880595888132</v>
+        <v>0.1132614736612041</v>
       </c>
       <c r="F10">
-        <v>0.6788481831932813</v>
+        <v>0.6689749086682752</v>
       </c>
       <c r="G10">
-        <v>0.0007655381612866352</v>
+        <v>0.002403492224868034</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.524531714864793</v>
+        <v>1.776296137607062</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.64813404938559</v>
+        <v>0.5501249862443984</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.774594140771171</v>
+        <v>2.195413457230671</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2424836618411774</v>
+        <v>0.07631759914855252</v>
       </c>
       <c r="D11">
-        <v>0.06507694051782664</v>
+        <v>0.03023947668888383</v>
       </c>
       <c r="E11">
-        <v>0.2785697613154099</v>
+        <v>0.1171959390066633</v>
       </c>
       <c r="F11">
-        <v>0.7220283693120138</v>
+        <v>0.6727317843004386</v>
       </c>
       <c r="G11">
-        <v>0.0007617423406590538</v>
+        <v>0.00240133325348157</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.924682369764753</v>
+        <v>1.898257636291532</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.773632033422572</v>
+        <v>0.5848602013224138</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.874837968877102</v>
+        <v>2.194961624570595</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2491175632341225</v>
+        <v>0.07809876378640013</v>
       </c>
       <c r="D12">
-        <v>0.06643240439473175</v>
+        <v>0.03069208872567231</v>
       </c>
       <c r="E12">
-        <v>0.2868453463792164</v>
+        <v>0.118705294897488</v>
       </c>
       <c r="F12">
-        <v>0.7388562880845058</v>
+        <v>0.6742534969284293</v>
       </c>
       <c r="G12">
-        <v>0.0007603139385711411</v>
+        <v>0.002400530858275733</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.076731420083433</v>
+        <v>1.944399426259793</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.821476717175031</v>
+        <v>0.5980235567196388</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.914372073038692</v>
+        <v>2.195130126496537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2476864928735978</v>
+        <v>0.07771504291413578</v>
       </c>
       <c r="D13">
-        <v>0.06614026817108964</v>
+        <v>0.03059463282788499</v>
       </c>
       <c r="E13">
-        <v>0.2850547052590997</v>
+        <v>0.1183793569884628</v>
       </c>
       <c r="F13">
-        <v>0.7352100602114433</v>
+        <v>0.6739213530747321</v>
       </c>
       <c r="G13">
-        <v>0.0007606211877765205</v>
+        <v>0.002400702995453492</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.043960176842688</v>
+        <v>1.934463880525982</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.811157387826313</v>
+        <v>0.5951881531015033</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.905784965535673</v>
+        <v>2.19507869742344</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2430283927287178</v>
+        <v>0.07646408476485078</v>
       </c>
       <c r="D14">
-        <v>0.06518836076513423</v>
+        <v>0.03027672331810294</v>
       </c>
       <c r="E14">
-        <v>0.2792468744251835</v>
+        <v>0.1173197225972658</v>
       </c>
       <c r="F14">
-        <v>0.7234029609849131</v>
+        <v>0.6728549875524976</v>
       </c>
       <c r="G14">
-        <v>0.0007616246511076578</v>
+        <v>0.002401266936455001</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.937180527819692</v>
+        <v>1.902054609096638</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.777561507591372</v>
+        <v>0.5859429604373787</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.878057942110388</v>
+        <v>2.194968668510484</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2401819013028188</v>
+        <v>0.0756981736152369</v>
       </c>
       <c r="D15">
-        <v>0.06460589774356862</v>
+        <v>0.03008193002827397</v>
       </c>
       <c r="E15">
-        <v>0.2757134213403205</v>
+        <v>0.1166732106444925</v>
       </c>
       <c r="F15">
-        <v>0.7162343822645454</v>
+        <v>0.672214727479485</v>
       </c>
       <c r="G15">
-        <v>0.0007622404405854757</v>
+        <v>0.002401614338927327</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.871845675922771</v>
+        <v>1.882197420299292</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.757026437887816</v>
+        <v>0.5802812999633176</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.861284353693833</v>
+        <v>2.194945564534976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2239675727847015</v>
+        <v>0.07131418819608371</v>
       </c>
       <c r="D16">
-        <v>0.06127669469166364</v>
+        <v>0.0289646804267889</v>
       </c>
       <c r="E16">
-        <v>0.2558144255317885</v>
+        <v>0.1130070508168757</v>
       </c>
       <c r="F16">
-        <v>0.6760901299481787</v>
+        <v>0.6687432170705705</v>
       </c>
       <c r="G16">
-        <v>0.0007657875430654329</v>
+        <v>0.002403635444297589</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.498448445852318</v>
+        <v>1.768319836772775</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.639974659561403</v>
+        <v>0.547856341548524</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.768254111620536</v>
+        <v>2.195490387058669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2141021813172017</v>
+        <v>0.06862932031492619</v>
       </c>
       <c r="D17">
-        <v>0.05924137509475003</v>
+        <v>0.02827844337577545</v>
       </c>
       <c r="E17">
-        <v>0.2439001049164773</v>
+        <v>0.1107922605967318</v>
       </c>
       <c r="F17">
-        <v>0.6522571320517159</v>
+        <v>0.6667893438484782</v>
       </c>
       <c r="G17">
-        <v>0.0007679807135367733</v>
+        <v>0.002404902410028477</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.270205006001504</v>
+        <v>1.698386122592979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.568685838014915</v>
+        <v>0.52798228955632</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.713809585941817</v>
+        <v>2.196427118945252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2084556769228243</v>
+        <v>0.06708672394314874</v>
       </c>
       <c r="D18">
-        <v>0.05807303931752017</v>
+        <v>0.02788343831117146</v>
       </c>
       <c r="E18">
-        <v>0.2371477458229307</v>
+        <v>0.1095308559679538</v>
       </c>
       <c r="F18">
-        <v>0.6388251972591661</v>
+        <v>0.665729929447366</v>
       </c>
       <c r="G18">
-        <v>0.000769248788142947</v>
+        <v>0.00240564111204667</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.139198333407649</v>
+        <v>1.658135687675326</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.527857612752356</v>
+        <v>0.5165577350129098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.68340891888559</v>
+        <v>2.19718660689378</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2065484443544534</v>
+        <v>0.06656471304481215</v>
       </c>
       <c r="D19">
-        <v>0.05767783675882043</v>
+        <v>0.02774964580201811</v>
       </c>
       <c r="E19">
-        <v>0.2348781020669293</v>
+        <v>0.109105899428009</v>
       </c>
       <c r="F19">
-        <v>0.6343233696195654</v>
+        <v>0.6653822721307279</v>
       </c>
       <c r="G19">
-        <v>0.0007696793032543299</v>
+        <v>0.002405892939762566</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.094885874155068</v>
+        <v>1.644503103032037</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.514062564795964</v>
+        <v>0.5126906895090713</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.67326816168665</v>
+        <v>2.197481595112549</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2151494433093291</v>
+        <v>0.06891495618550891</v>
       </c>
       <c r="D20">
-        <v>0.05945779189500655</v>
+        <v>0.02835152570465738</v>
       </c>
       <c r="E20">
-        <v>0.2451578502043432</v>
+        <v>0.1110267341768889</v>
       </c>
       <c r="F20">
-        <v>0.6547652672502267</v>
+        <v>0.6669906671535983</v>
       </c>
       <c r="G20">
-        <v>0.0007677465686757438</v>
+        <v>0.002404766507261728</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.294473010095089</v>
+        <v>1.705833433032012</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.576256182660586</v>
+        <v>0.5300972463160463</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.719509545632917</v>
+        <v>2.196304544065356</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2443951741099966</v>
+        <v>0.07683145124927648</v>
       </c>
       <c r="D21">
-        <v>0.06546783077408946</v>
+        <v>0.03037011454718908</v>
       </c>
       <c r="E21">
-        <v>0.2809477265630775</v>
+        <v>0.1176304319548436</v>
       </c>
       <c r="F21">
-        <v>0.7268576405451341</v>
+        <v>0.6731655114183184</v>
       </c>
       <c r="G21">
-        <v>0.0007613296741645457</v>
+        <v>0.002401100882642782</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.96852936979127</v>
+        <v>1.91157516267765</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.78742029813445</v>
+        <v>0.5886582294282334</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.886157964912798</v>
+        <v>2.194991752317065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2638041978854062</v>
+        <v>0.0820203900707952</v>
       </c>
       <c r="D22">
-        <v>0.06942222285065469</v>
+        <v>0.03168651537819756</v>
       </c>
       <c r="E22">
-        <v>0.3053932131767212</v>
+        <v>0.1220599191367313</v>
       </c>
       <c r="F22">
-        <v>0.7767782265053569</v>
+        <v>0.6777788447608799</v>
       </c>
       <c r="G22">
-        <v>0.0007571877364837738</v>
+        <v>0.002398793517183656</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.412149791330648</v>
+        <v>2.045791395819549</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.927327483888106</v>
+        <v>0.626988826016742</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.004332673357595</v>
+        <v>2.19611425154099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2534157870684339</v>
+        <v>0.07924956918910198</v>
       </c>
       <c r="D23">
-        <v>0.0673089666667579</v>
+        <v>0.03098419883497172</v>
       </c>
       <c r="E23">
-        <v>0.2922414077786328</v>
+        <v>0.1196853076249909</v>
       </c>
       <c r="F23">
-        <v>0.7498604383915364</v>
+        <v>0.6752635564856462</v>
       </c>
       <c r="G23">
-        <v>0.0007593939823055305</v>
+        <v>0.00240001694372041</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.175065234165174</v>
+        <v>1.974180954878705</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.852465167885569</v>
+        <v>0.606525794804412</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.940355969873337</v>
+        <v>2.195333205381388</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2146758980553045</v>
+        <v>0.06878581719088572</v>
       </c>
       <c r="D24">
-        <v>0.05935994432512359</v>
+        <v>0.02831848667175052</v>
       </c>
       <c r="E24">
-        <v>0.2445889220689281</v>
+        <v>0.1109206916087473</v>
       </c>
       <c r="F24">
-        <v>0.6536305021171103</v>
+        <v>0.6668994499066514</v>
       </c>
       <c r="G24">
-        <v>0.0007678524030487644</v>
+        <v>0.002404827916670972</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.283500787385606</v>
+        <v>1.702466642811885</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.572833145483784</v>
+        <v>0.5291410703148642</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.716929801863955</v>
+        <v>2.196359272077189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1739289306306517</v>
+        <v>0.05756260375602551</v>
       </c>
       <c r="D25">
-        <v>0.05087198377060531</v>
+        <v>0.0254317391691643</v>
       </c>
       <c r="E25">
-        <v>0.1969548093140716</v>
+        <v>0.1019424608607693</v>
       </c>
       <c r="F25">
-        <v>0.5602260963997807</v>
+        <v>0.6603370198988614</v>
       </c>
       <c r="G25">
-        <v>0.0007772327270437056</v>
+        <v>0.002410399090295086</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.331929431314904</v>
+        <v>1.408375745699914</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.277745529431385</v>
+        <v>0.4459164284664467</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.510359162775046</v>
+        <v>2.205894878687246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_117/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04935063238890791</v>
+        <v>0.1445893971564658</v>
       </c>
       <c r="D2">
-        <v>0.02329706158598555</v>
+        <v>0.04466897955949634</v>
       </c>
       <c r="E2">
-        <v>0.09572615734814605</v>
+        <v>0.164374110081468</v>
       </c>
       <c r="F2">
-        <v>0.6575948666205704</v>
+        <v>0.4987523015660287</v>
       </c>
       <c r="G2">
-        <v>0.002414832999980501</v>
+        <v>0.0007843950141857003</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.190993477032976</v>
+        <v>3.636777802085305</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3848367263253465</v>
+        <v>1.06447134295432</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.220079531345846</v>
+        <v>1.382581513743276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04381608568382944</v>
+        <v>0.1250154217547959</v>
       </c>
       <c r="D3">
-        <v>0.02184499405163365</v>
+        <v>0.04048252604729896</v>
       </c>
       <c r="E3">
-        <v>0.09175192719149194</v>
+        <v>0.1435232406883351</v>
       </c>
       <c r="F3">
-        <v>0.6570273404666551</v>
+        <v>0.4609161278383738</v>
       </c>
       <c r="G3">
-        <v>0.002418046712899343</v>
+        <v>0.0007894240203435695</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.043158600739957</v>
+        <v>3.167679349054993</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3435600473777072</v>
+        <v>0.9217144202703693</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.234118524495727</v>
+        <v>1.308811619101931</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04043264710733752</v>
+        <v>0.1131187225882542</v>
       </c>
       <c r="D4">
-        <v>0.02095091101128332</v>
+        <v>0.03791727518783716</v>
       </c>
       <c r="E4">
-        <v>0.08942706720871385</v>
+        <v>0.131231115108406</v>
       </c>
       <c r="F4">
-        <v>0.6573115144528856</v>
+        <v>0.4393528023536604</v>
       </c>
       <c r="G4">
-        <v>0.002420123526819381</v>
+        <v>0.0007926028949629845</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9521415680187033</v>
+        <v>2.880230607986846</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3182726918021928</v>
+        <v>0.8347293243700022</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.244907689826732</v>
+        <v>1.26914030223287</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03905755951444689</v>
+        <v>0.1082971216137452</v>
       </c>
       <c r="D5">
-        <v>0.02058596368797794</v>
+        <v>0.03687280711847762</v>
       </c>
       <c r="E5">
-        <v>0.08850834500567473</v>
+        <v>0.1263371837637486</v>
       </c>
       <c r="F5">
-        <v>0.6575858425592784</v>
+        <v>0.4309548235550835</v>
       </c>
       <c r="G5">
-        <v>0.002420995973066664</v>
+        <v>0.0007939218490170171</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9149914020390497</v>
+        <v>2.763183966497451</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3079821650989487</v>
+        <v>0.7994218472076255</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.249847838789037</v>
+        <v>1.254290684219484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03882944935303101</v>
+        <v>0.1074979742201378</v>
       </c>
       <c r="D6">
-        <v>0.02052532902470006</v>
+        <v>0.03669941621028983</v>
       </c>
       <c r="E6">
-        <v>0.08835751443313811</v>
+        <v>0.125531141885066</v>
       </c>
       <c r="F6">
-        <v>0.657640952726517</v>
+        <v>0.4295830054506027</v>
       </c>
       <c r="G6">
-        <v>0.002421142422478213</v>
+        <v>0.0007941423000928626</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9088190767143942</v>
+        <v>2.743752439229269</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3062742940158429</v>
+        <v>0.7935667102835282</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.25070091343585</v>
+        <v>1.251901710981571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04041408728924978</v>
+        <v>0.1130535952991067</v>
       </c>
       <c r="D7">
-        <v>0.02094599159831034</v>
+        <v>0.03790318604663412</v>
       </c>
       <c r="E7">
-        <v>0.08941456131567094</v>
+        <v>0.1311646640528394</v>
       </c>
       <c r="F7">
-        <v>0.6573145730180414</v>
+        <v>0.4392380068606769</v>
       </c>
       <c r="G7">
-        <v>0.002420135187214192</v>
+        <v>0.0007926205866213443</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9516407883212707</v>
+        <v>2.878651776707443</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3181338523226458</v>
+        <v>0.8342526259986656</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.244972116523286</v>
+        <v>1.268934827926813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04743923049579735</v>
+        <v>0.1378123804197458</v>
       </c>
       <c r="D8">
-        <v>0.02279692617150886</v>
+        <v>0.04322412924749131</v>
       </c>
       <c r="E8">
-        <v>0.09433170858888928</v>
+        <v>0.1570705966804056</v>
       </c>
       <c r="F8">
-        <v>0.6572675424430159</v>
+        <v>0.4853413593105245</v>
       </c>
       <c r="G8">
-        <v>0.002415919638966352</v>
+        <v>0.0007861105186304229</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.140072074459738</v>
+        <v>3.474878019018661</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3705927582217186</v>
+        <v>1.015092318434291</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.22446877231863</v>
+        <v>1.355917957777933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06133494551016838</v>
+        <v>0.1875370922522421</v>
       </c>
       <c r="D9">
-        <v>0.02640561363645588</v>
+        <v>0.05372221992433168</v>
       </c>
       <c r="E9">
-        <v>0.104904552020173</v>
+        <v>0.2125667452423272</v>
       </c>
       <c r="F9">
-        <v>0.6622212676352106</v>
+        <v>0.5904523799800927</v>
       </c>
       <c r="G9">
-        <v>0.002408471113721576</v>
+        <v>0.0007740354507822948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.507573514231581</v>
+        <v>4.651414171449233</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4739191239616787</v>
+        <v>1.376423553081693</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.201564302808521</v>
+        <v>1.575832337581261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07162077706347247</v>
+        <v>0.2250972056094582</v>
       </c>
       <c r="D10">
-        <v>0.02904294357063719</v>
+        <v>0.06150927254623895</v>
       </c>
       <c r="E10">
-        <v>0.1132614736612041</v>
+        <v>0.2571880595888061</v>
       </c>
       <c r="F10">
-        <v>0.6689749086682752</v>
+        <v>0.6788481831932671</v>
       </c>
       <c r="G10">
-        <v>0.002403492224868034</v>
+        <v>0.0007655381612593769</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.776296137607062</v>
+        <v>5.524531714864736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5501249862443984</v>
+        <v>1.648134049385604</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.195413457230671</v>
+        <v>1.774594140771228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07631759914855252</v>
+        <v>0.2424836618410779</v>
       </c>
       <c r="D11">
-        <v>0.03023947668888383</v>
+        <v>0.06507694051788349</v>
       </c>
       <c r="E11">
-        <v>0.1171959390066633</v>
+        <v>0.2785697613154028</v>
       </c>
       <c r="F11">
-        <v>0.6727317843004386</v>
+        <v>0.7220283693119995</v>
       </c>
       <c r="G11">
-        <v>0.00240133325348157</v>
+        <v>0.0007617423406329258</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.898257636291532</v>
+        <v>5.92468236976481</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5848602013224138</v>
+        <v>1.773632033422572</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.194961624570595</v>
+        <v>1.874837968877131</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07809876378640013</v>
+        <v>0.2491175632341509</v>
       </c>
       <c r="D12">
-        <v>0.03069208872567231</v>
+        <v>0.06643240439490938</v>
       </c>
       <c r="E12">
-        <v>0.118705294897488</v>
+        <v>0.2868453463792306</v>
       </c>
       <c r="F12">
-        <v>0.6742534969284293</v>
+        <v>0.7388562880845058</v>
       </c>
       <c r="G12">
-        <v>0.002400530858275733</v>
+        <v>0.0007603139385449764</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.944399426259793</v>
+        <v>6.07673142008349</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5980235567196388</v>
+        <v>1.821476717175045</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.195130126496537</v>
+        <v>1.914372073038692</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07771504291413578</v>
+        <v>0.247686492873612</v>
       </c>
       <c r="D13">
-        <v>0.03059463282788499</v>
+        <v>0.06614026817091911</v>
       </c>
       <c r="E13">
-        <v>0.1183793569884628</v>
+        <v>0.2850547052590784</v>
       </c>
       <c r="F13">
-        <v>0.6739213530747321</v>
+        <v>0.7352100602114433</v>
       </c>
       <c r="G13">
-        <v>0.002400702995453492</v>
+        <v>0.0007606211878047331</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.934463880525982</v>
+        <v>6.043960176842575</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5951881531015033</v>
+        <v>1.811157387826313</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.19507869742344</v>
+        <v>1.90578496553556</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07646408476485078</v>
+        <v>0.243028392728732</v>
       </c>
       <c r="D14">
-        <v>0.03027672331810294</v>
+        <v>0.06518836076513423</v>
       </c>
       <c r="E14">
-        <v>0.1173197225972658</v>
+        <v>0.2792468744251906</v>
       </c>
       <c r="F14">
-        <v>0.6728549875524976</v>
+        <v>0.7234029609849273</v>
       </c>
       <c r="G14">
-        <v>0.002401266936455001</v>
+        <v>0.0007616246510792104</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.902054609096638</v>
+        <v>5.937180527819748</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5859429604373787</v>
+        <v>1.777561507591344</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.194968668510484</v>
+        <v>1.878057942110388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0756981736152369</v>
+        <v>0.240181901302833</v>
       </c>
       <c r="D15">
-        <v>0.03008193002827397</v>
+        <v>0.06460589774373915</v>
       </c>
       <c r="E15">
-        <v>0.1166732106444925</v>
+        <v>0.2757134213403063</v>
       </c>
       <c r="F15">
-        <v>0.672214727479485</v>
+        <v>0.7162343822645454</v>
       </c>
       <c r="G15">
-        <v>0.002401614338927327</v>
+        <v>0.0007622404406124172</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.882197420299292</v>
+        <v>5.871845675922884</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5802812999633176</v>
+        <v>1.757026437887831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.194945564534976</v>
+        <v>1.861284353693918</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07131418819608371</v>
+        <v>0.2239675727848294</v>
       </c>
       <c r="D16">
-        <v>0.0289646804267889</v>
+        <v>0.06127669469165653</v>
       </c>
       <c r="E16">
-        <v>0.1130070508168757</v>
+        <v>0.2558144255317885</v>
       </c>
       <c r="F16">
-        <v>0.6687432170705705</v>
+        <v>0.6760901299481787</v>
       </c>
       <c r="G16">
-        <v>0.002403635444297589</v>
+        <v>0.0007657875431738806</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.768319836772775</v>
+        <v>5.498448445852318</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.547856341548524</v>
+        <v>1.639974659561403</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.195490387058669</v>
+        <v>1.768254111620507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06862932031492619</v>
+        <v>0.2141021813173296</v>
       </c>
       <c r="D17">
-        <v>0.02827844337577545</v>
+        <v>0.05924137509480687</v>
       </c>
       <c r="E17">
-        <v>0.1107922605967318</v>
+        <v>0.2439001049165057</v>
       </c>
       <c r="F17">
-        <v>0.6667893438484782</v>
+        <v>0.6522571320517159</v>
       </c>
       <c r="G17">
-        <v>0.002404902410028477</v>
+        <v>0.0007679807135129346</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.698386122592979</v>
+        <v>5.270205006001447</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.52798228955632</v>
+        <v>1.568685838014915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.196427118945252</v>
+        <v>1.713809585941846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06708672394314874</v>
+        <v>0.2084556769227959</v>
       </c>
       <c r="D18">
-        <v>0.02788343831117146</v>
+        <v>0.05807303931767649</v>
       </c>
       <c r="E18">
-        <v>0.1095308559679538</v>
+        <v>0.2371477458229236</v>
       </c>
       <c r="F18">
-        <v>0.665729929447366</v>
+        <v>0.6388251972591661</v>
       </c>
       <c r="G18">
-        <v>0.00240564111204667</v>
+        <v>0.0007692487881416112</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.658135687675326</v>
+        <v>5.139198333407592</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5165577350129098</v>
+        <v>1.527857612752342</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.19718660689378</v>
+        <v>1.683408918885618</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06656471304481215</v>
+        <v>0.2065484443544534</v>
       </c>
       <c r="D19">
-        <v>0.02774964580201811</v>
+        <v>0.05767783675854332</v>
       </c>
       <c r="E19">
-        <v>0.109105899428009</v>
+        <v>0.2348781020669506</v>
       </c>
       <c r="F19">
-        <v>0.6653822721307279</v>
+        <v>0.6343233696195796</v>
       </c>
       <c r="G19">
-        <v>0.002405892939762566</v>
+        <v>0.0007696793032559188</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.644503103032037</v>
+        <v>5.094885874154954</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5126906895090713</v>
+        <v>1.514062564795978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.197481595112549</v>
+        <v>1.67326816168665</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06891495618550891</v>
+        <v>0.2151494433091159</v>
       </c>
       <c r="D20">
-        <v>0.02835152570465738</v>
+        <v>0.05945779189489286</v>
       </c>
       <c r="E20">
-        <v>0.1110267341768889</v>
+        <v>0.2451578502043361</v>
       </c>
       <c r="F20">
-        <v>0.6669906671535983</v>
+        <v>0.6547652672502267</v>
       </c>
       <c r="G20">
-        <v>0.002404766507261728</v>
+        <v>0.0007677465685947</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.705833433032012</v>
+        <v>5.294473010095032</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5300972463160463</v>
+        <v>1.576256182660629</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.196304544065356</v>
+        <v>1.719509545632917</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07683145124927648</v>
+        <v>0.2443951741099966</v>
       </c>
       <c r="D21">
-        <v>0.03037011454718908</v>
+        <v>0.06546783077436658</v>
       </c>
       <c r="E21">
-        <v>0.1176304319548436</v>
+        <v>0.2809477265630704</v>
       </c>
       <c r="F21">
-        <v>0.6731655114183184</v>
+        <v>0.7268576405451483</v>
       </c>
       <c r="G21">
-        <v>0.002401100882642782</v>
+        <v>0.0007613296740820461</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.91157516267765</v>
+        <v>5.968529369791213</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5886582294282334</v>
+        <v>1.78742029813445</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.194991752317065</v>
+        <v>1.886157964912826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0820203900707952</v>
+        <v>0.2638041978856194</v>
       </c>
       <c r="D22">
-        <v>0.03168651537819756</v>
+        <v>0.06942222285058364</v>
       </c>
       <c r="E22">
-        <v>0.1220599191367313</v>
+        <v>0.3053932131767212</v>
       </c>
       <c r="F22">
-        <v>0.6777788447608799</v>
+        <v>0.7767782265053853</v>
       </c>
       <c r="G22">
-        <v>0.002398793517183656</v>
+        <v>0.0007571877365102099</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.045791395819549</v>
+        <v>6.412149791330705</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.626988826016742</v>
+        <v>1.927327483888106</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.19611425154099</v>
+        <v>2.004332673357681</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07924956918910198</v>
+        <v>0.2534157870683202</v>
       </c>
       <c r="D23">
-        <v>0.03098419883497172</v>
+        <v>0.06730896666709185</v>
       </c>
       <c r="E23">
-        <v>0.1196853076249909</v>
+        <v>0.2922414077786328</v>
       </c>
       <c r="F23">
-        <v>0.6752635564856462</v>
+        <v>0.7498604383915364</v>
       </c>
       <c r="G23">
-        <v>0.00240001694372041</v>
+        <v>0.0007593939823330049</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.974180954878705</v>
+        <v>6.175065234165231</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.606525794804412</v>
+        <v>1.852465167885597</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.195333205381388</v>
+        <v>1.940355969873423</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06878581719088572</v>
+        <v>0.2146758980549635</v>
       </c>
       <c r="D24">
-        <v>0.02831848667175052</v>
+        <v>0.05935994432512359</v>
       </c>
       <c r="E24">
-        <v>0.1109206916087473</v>
+        <v>0.244588922068921</v>
       </c>
       <c r="F24">
-        <v>0.6668994499066514</v>
+        <v>0.6536305021171103</v>
       </c>
       <c r="G24">
-        <v>0.002404827916670972</v>
+        <v>0.0007678524030488815</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.702466642811885</v>
+        <v>5.283500787385549</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5291410703148642</v>
+        <v>1.572833145483756</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.196359272077189</v>
+        <v>1.716929801863955</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05756260375602551</v>
+        <v>0.1739289306310781</v>
       </c>
       <c r="D25">
-        <v>0.0254317391691643</v>
+        <v>0.05087198377059821</v>
       </c>
       <c r="E25">
-        <v>0.1019424608607693</v>
+        <v>0.1969548093140645</v>
       </c>
       <c r="F25">
-        <v>0.6603370198988614</v>
+        <v>0.5602260963997665</v>
       </c>
       <c r="G25">
-        <v>0.002410399090295086</v>
+        <v>0.0007772327270436887</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.408375745699914</v>
+        <v>4.331929431314961</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4459164284664467</v>
+        <v>1.277745529431385</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.205894878687246</v>
+        <v>1.510359162775103</v>
       </c>
     </row>
   </sheetData>
